--- a/documentation/Testplan/Testplan RPC.xlsx
+++ b/documentation/Testplan/Testplan RPC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijs\Documents\Git\rock-paper-code\documentation\Testplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijs\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE69BFB8-F1D7-4B38-9DF7-496177DF432F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1188A2-F640-4FC6-8763-B43D955E44B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>wb</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>I expect that selecting the item wouldn't have any problems</t>
+  </si>
+  <si>
+    <t>there was no problem</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +575,9 @@
         <v>16</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -590,7 +595,9 @@
         <v>16</v>
       </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
@@ -605,6 +612,9 @@
       <c r="F6" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H6" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -619,6 +629,9 @@
       <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
@@ -633,6 +646,9 @@
       <c r="F8" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H8" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -647,6 +663,9 @@
       <c r="F9" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="H9" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -660,6 +679,9 @@
       </c>
       <c r="F10" s="14" t="s">
         <v>16</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
